--- a/lista-uczniow.xlsx
+++ b/lista-uczniow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb0c59427c879960/Dokumenty/UiPath/Obowiazek-uczniowski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B547ACF-F0A8-48A6-B396-DAE85D58D06A}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE0825E-2BB4-4CF0-8F6C-6DA01CCAE5D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/lista-uczniow.xlsx
+++ b/lista-uczniow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb0c59427c879960/Dokumenty/UiPath/Obowiazek-uczniowski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE0825E-2BB4-4CF0-8F6C-6DA01CCAE5D7}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7549FA6C-13D0-4ABB-B0ED-C553FAD7A4E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Imię</t>
   </si>
@@ -36,116 +36,86 @@
     <t>Data Urodzenia</t>
   </si>
   <si>
-    <t>Maciej</t>
-  </si>
-  <si>
-    <t>Lucjan</t>
-  </si>
-  <si>
     <t>Kamil</t>
   </si>
   <si>
-    <t>Ryszard</t>
-  </si>
-  <si>
     <t>Kołodziej</t>
   </si>
   <si>
-    <t>Malinowski</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Baran</t>
-  </si>
-  <si>
-    <t>Witkowski</t>
-  </si>
-  <si>
-    <t>Bartosz</t>
-  </si>
-  <si>
     <t>Gabriela</t>
   </si>
   <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>Wiktoria</t>
-  </si>
-  <si>
     <t>Kubiak</t>
   </si>
   <si>
-    <t>Cieślak</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Pawlak</t>
-  </si>
-  <si>
-    <t>Daria</t>
-  </si>
-  <si>
-    <t>Lp.</t>
-  </si>
-  <si>
-    <t>Szkoła</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Klasa</t>
   </si>
   <si>
     <t>1A</t>
   </si>
   <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>Szkoła Podstawowa Nr 119</t>
   </si>
   <si>
     <t>Szkoła Podstawowa Nr 156</t>
   </si>
   <si>
-    <t>Szkoła Podstawowa Nr 32</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa Nr 47</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa Nr 66</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa nr 19</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa Nr 4</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa Nr 38</t>
-  </si>
-  <si>
-    <t>Szkoła Podstawowa Nr 55</t>
-  </si>
-  <si>
     <t>robotproject24@gmail.com</t>
+  </si>
+  <si>
+    <t>Uczeń</t>
+  </si>
+  <si>
+    <t>Szkoła1</t>
+  </si>
+  <si>
+    <t>Ulica1</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Szkoła okręgowa z adresu zameldowania</t>
+  </si>
+  <si>
+    <t>Szkoła okręgowa z adresu zamieszkania</t>
+  </si>
+  <si>
+    <t>Szkoła2</t>
+  </si>
+  <si>
+    <t>Ulica2</t>
+  </si>
+  <si>
+    <t>ulica BOLESŁAWA CZERWIEŃSKIEGO 1</t>
+  </si>
+  <si>
+    <t>31-319 Kraków</t>
+  </si>
+  <si>
+    <t>Kod/Miasto1</t>
+  </si>
+  <si>
+    <t>Kod/Miasto2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Wysłano</t>
+  </si>
+  <si>
+    <t>ulica CENTRALNA 39</t>
+  </si>
+  <si>
+    <t>31-586 Kraków</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +128,13 @@
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,16 +157,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -504,253 +484,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3CE0-393F-44FA-9C1C-656367637751}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43253</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>42793</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43416</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43343</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42862</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43175</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43358</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="L4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43405</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42908</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/lista-uczniow.xlsx
+++ b/lista-uczniow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb0c59427c879960/Dokumenty/UiPath/Obowiazek-uczniowski/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7549FA6C-13D0-4ABB-B0ED-C553FAD7A4E8}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0B90A4-A1FB-42DC-8AC0-362EE1FD7B55}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="25">
   <si>
     <t>Imię</t>
   </si>
@@ -63,9 +63,6 @@
     <t>robotproject24@gmail.com</t>
   </si>
   <si>
-    <t>Uczeń</t>
-  </si>
-  <si>
     <t>Szkoła1</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>Email1</t>
   </si>
   <si>
-    <t>Szkoła okręgowa z adresu zameldowania</t>
-  </si>
-  <si>
-    <t>Szkoła okręgowa z adresu zamieszkania</t>
-  </si>
-  <si>
     <t>Szkoła2</t>
   </si>
   <si>
@@ -102,13 +93,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Wysłano</t>
-  </si>
-  <si>
     <t>ulica CENTRALNA 39</t>
   </si>
   <si>
     <t>31-586 Kraków</t>
+  </si>
+  <si>
+    <t>Email2</t>
   </si>
 </sst>
 </file>
@@ -157,19 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -484,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3CE0-393F-44FA-9C1C-656367637751}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,150 +494,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43253</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>43253</v>
+        <v>42793</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>42793</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43253</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42793</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/lista-uczniow.xlsx
+++ b/lista-uczniow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb0c59427c879960/Dokumenty/UiPath/Obowiazek-uczniowski/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisc9\Obowiazek-uczniowski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{95E0092B-9DCD-41EF-8BB4-5D48F8AFCC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0B90A4-A1FB-42DC-8AC0-362EE1FD7B55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286C86C-AC4F-4293-8F34-39F760238B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
+    <workbookView xWindow="23775" yWindow="0" windowWidth="14220" windowHeight="8220" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
   <si>
     <t>Imię</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Email2</t>
+  </si>
+  <si>
+    <t>Wysłano</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3CE0-393F-44FA-9C1C-656367637751}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,6 +574,9 @@
       <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" t="s">
@@ -609,6 +615,9 @@
       <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" t="s">
@@ -647,6 +656,9 @@
       <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" t="s">
@@ -685,6 +697,9 @@
       <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" t="s">
@@ -723,6 +738,9 @@
       <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" t="s">
@@ -761,6 +779,9 @@
       <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
       <c r="A8" t="s">
@@ -799,6 +820,9 @@
       <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
       <c r="A9" t="s">
@@ -837,6 +861,9 @@
       <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" t="s">
@@ -875,6 +902,9 @@
       <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="A11" t="s">
@@ -913,6 +943,9 @@
       <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" t="s">
@@ -951,6 +984,9 @@
       <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" t="s">
@@ -989,6 +1025,9 @@
       <c r="L13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" t="s">
@@ -1027,119 +1066,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>42793</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43253</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42793</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>11</v>
+      <c r="M14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/lista-uczniow.xlsx
+++ b/lista-uczniow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisc9\Obowiazek-uczniowski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286C86C-AC4F-4293-8F34-39F760238B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161020CE-6EEC-429E-ACF8-859E2EE0A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23775" yWindow="0" windowWidth="14220" windowHeight="8220" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D6E6646B-DDDB-46D2-8EA1-9D61297FC5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
   <si>
     <t>Imię</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Email2</t>
-  </si>
-  <si>
-    <t>Wysłano</t>
   </si>
 </sst>
 </file>
@@ -475,25 +472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABF3CE0-393F-44FA-9C1C-656367637751}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -537,7 +534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -574,11 +571,8 @@
       <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
+    </row>
+    <row r="3" spans="1:13" ht="15.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -615,11 +609,8 @@
       <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75">
+    </row>
+    <row r="4" spans="1:13" ht="15.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -656,11 +647,8 @@
       <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75">
+    </row>
+    <row r="5" spans="1:13" ht="15.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -697,11 +685,8 @@
       <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
+    </row>
+    <row r="6" spans="1:13" ht="15.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -738,11 +723,8 @@
       <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
+    </row>
+    <row r="7" spans="1:13" ht="15.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -779,11 +761,8 @@
       <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
+    </row>
+    <row r="8" spans="1:13" ht="15.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -820,11 +799,8 @@
       <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75">
+    </row>
+    <row r="9" spans="1:13" ht="15.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -861,11 +837,8 @@
       <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
+    </row>
+    <row r="10" spans="1:13" ht="15.4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -902,11 +875,8 @@
       <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
+    </row>
+    <row r="11" spans="1:13" ht="15.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -943,11 +913,8 @@
       <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
+    </row>
+    <row r="12" spans="1:13" ht="15.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -984,11 +951,8 @@
       <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75">
+    </row>
+    <row r="13" spans="1:13" ht="15.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1025,11 +989,8 @@
       <c r="L13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75">
+    </row>
+    <row r="14" spans="1:13" ht="15.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1065,9 +1026,6 @@
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
